--- a/DesignDocs/F1 运行栈结构.xlsx
+++ b/DesignDocs/F1 运行栈结构.xlsx
@@ -16,9 +16,77 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>栈顶EBP</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+  <si>
+    <t>参数区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>局部变量区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>临时变量区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行栈结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>display区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CALL语句自动压栈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>栈指针ESP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基指针EBP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBP - 4 * (level + 1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>para#n.addr = EBP - 4 * (display.length + n + 1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ret_addr = EBP - 4 * (display.length + parameter.length + 1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>var#n.addr = EBP - 4 * (display.length + 1 + n + 1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">array#n[offset].addr = EBP - 4 * (display.length + 1 + n + 1 + offset) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>temp#n.addr = EBP - 4 * (display.length + 1 + var_space + n + 1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>temp#n.addr = ESP + 4 * (temp_space - n - 1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -62,8 +130,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -365,20 +442,104 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4"/>
+  <dimension ref="A2:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="86" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" customWidth="1"/>
+    <col min="5" max="5" width="8.625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
         <v>0</v>
       </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B8" s="3"/>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A9:A10"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/DesignDocs/F1 运行栈结构.xlsx
+++ b/DesignDocs/F1 运行栈结构.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="32">
   <si>
     <t>参数区</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,10 +42,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CALL语句自动压栈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>区域</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -58,35 +54,95 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>基指针EBP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EBP - 4 * (level + 1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>para#n.addr = EBP - 4 * (display.length + n + 1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ret_addr = EBP - 4 * (display.length + parameter.length + 1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>var#n.addr = EBP - 4 * (display.length + 1 + n + 1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">array#n[offset].addr = EBP - 4 * (display.length + 1 + n + 1 + offset) </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>temp#n.addr = EBP - 4 * (display.length + 1 + var_space + n + 1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>temp#n.addr = ESP + 4 * (temp_space - n - 1)</t>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回地址由CALL语句自动压栈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prev_EBP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>new_EBP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prev_EBP由函数首部压栈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>new_EBP由压栈后的ESP赋值得到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数层次level从0开始计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prev_EBP.addr = new_EBP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ret_addr = EBP + 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>para#n.addr = EBP + 4 * (1 + para_num - n)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>display单独编址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>para与var/array统一编址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>temp单独编址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>display#n.addr = EBP + 4* (1 + para_num + level - n)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>var#n.addr = EBP - 4 * (n + 1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">array#n[offset].addr = EBP - 4 * (n + 1 + offset) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>temp#n.addr = EBP - 4 * (var_space + n + 1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能用ESP计算temp#n，因为ESP可能会变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>display#n.addr = EBP + 4 * (1 + level - n)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>para#n.addr = EBP + 4 * (1 + level + para_num - n)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">array#n[array_offset].addr = EBP - 4 * (n + 1 + array_offset) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数层次level从0开始计算，主函数为第0层，函数定义的变量的层次比函数多1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -442,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C10"/>
+  <dimension ref="A2:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -453,92 +509,124 @@
     <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="86" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" customWidth="1"/>
+    <col min="4" max="4" width="27.625" customWidth="1"/>
     <col min="5" max="5" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
       <c r="C5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>5</v>
       </c>
       <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B7" s="3" t="s">
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B8" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B8" s="3"/>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="3" t="s">
+      <c r="C8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B9" s="3"/>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="2">
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B8:B9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -548,12 +636,136 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="86" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.625" customWidth="1"/>
+    <col min="5" max="5" width="8.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B9" s="3"/>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="B8:B9"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DesignDocs/F1 运行栈结构.xlsx
+++ b/DesignDocs/F1 运行栈结构.xlsx
@@ -501,7 +501,7 @@
   <dimension ref="A2:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -586,15 +586,15 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B9" s="3"/>
       <c r="C9" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="B10" s="1" t="s">
         <v>2</v>
       </c>

--- a/DesignDocs/F1 运行栈结构.xlsx
+++ b/DesignDocs/F1 运行栈结构.xlsx
@@ -150,7 +150,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,6 +163,13 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -186,7 +193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -197,6 +204,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -501,7 +509,7 @@
   <dimension ref="A2:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -598,7 +606,7 @@
       <c r="B10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D10" t="s">

--- a/DesignDocs/F1 运行栈结构.xlsx
+++ b/DesignDocs/F1 运行栈结构.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="30">
   <si>
     <t>参数区</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,10 +78,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>函数层次level从0开始计算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>prev_EBP.addr = new_EBP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -90,10 +86,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>para#n.addr = EBP + 4 * (1 + para_num - n)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>注意：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -110,7 +102,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>display#n.addr = EBP + 4* (1 + para_num + level - n)</t>
+    <t>temp#n.addr = EBP - 4 * (var_space + n + 1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能用ESP计算temp#n，因为ESP可能会变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>display#n.addr = EBP + 4 * (1 + level - n)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>para#n.addr = EBP + 4 * (1 + level + para_num - n)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">array#n[array_offset].addr = EBP - 4 * (n + 1 + array_offset) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数层次level从0开始计算，主函数为第0层，函数定义的变量的层次比函数多1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -118,31 +130,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">array#n[offset].addr = EBP - 4 * (n + 1 + offset) </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>temp#n.addr = EBP - 4 * (var_space + n + 1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不能用ESP计算temp#n，因为ESP可能会变</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>display#n.addr = EBP + 4 * (1 + level - n)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>para#n.addr = EBP + 4 * (1 + level + para_num - n)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">array#n[array_offset].addr = EBP - 4 * (n + 1 + array_offset) </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>函数层次level从0开始计算，主函数为第0层，函数定义的变量的层次比函数多1</t>
+    <t>var#n.addr = EBP - 4 * (n - para_num + 1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">array#n[array_offset].addr = EBP - 4 * (n - para_num + 1 + array_offset) </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -198,13 +190,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -509,7 +501,7 @@
   <dimension ref="A2:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -522,10 +514,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="3"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
@@ -543,7 +535,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -551,10 +543,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -562,7 +554,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
@@ -576,7 +568,7 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
@@ -586,49 +578,49 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="3"/>
+      <c r="B9" s="4"/>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>26</v>
+      <c r="C10" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -647,7 +639,7 @@
   <dimension ref="A2:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B23" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -660,10 +652,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="3"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
@@ -678,21 +670,21 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -700,7 +692,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
@@ -714,7 +706,7 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
@@ -724,49 +716,49 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B9" s="3"/>
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4"/>
       <c r="C9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="B10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C10" t="s">
-        <v>26</v>
+      <c r="C10" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
